--- a/Personality Prediction - Analyze/Dataset/Dataset/more_status_dataset.xlsx
+++ b/Personality Prediction - Analyze/Dataset/Dataset/more_status_dataset.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="375" windowWidth="19875" windowHeight="8235"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="206">
   <si>
     <t>user_id</t>
   </si>
@@ -1109,11 +1109,6 @@
     <t>Rommel Dante Villadolid</t>
   </si>
   <si>
-    <t>’Cause now i’m free as birds catching the wind
-Thank makakarecognize that I look like john llyod
-Oh against you?! Haha</t>
-  </si>
-  <si>
     <t>Aikendra Shrestha</t>
   </si>
   <si>
@@ -1563,12 +1558,38 @@
 And now there is noise in the speaker, Wtf
 Sell ​​yourself first buy ginian, woohh cool bro .., wtf lol, I'm now ranked Dedicated in Euro Truck Simulator 2 on Raptr !, giveaway, lol, giveaway, I'm now ranked Experienced in Euro Truck Simulator 2 on Raptr !, Beh berasa once download 1 gb: v, ohh fuck forced to download, Yeey finally buy also gamenya</t>
   </si>
+  <si>
+    <t>Openness</t>
+  </si>
+  <si>
+    <t>Conscientiousness</t>
+  </si>
+  <si>
+    <t>Extraversion</t>
+  </si>
+  <si>
+    <t>Agreeableness</t>
+  </si>
+  <si>
+    <t>Neuroticism</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y’nCause now i’m free as birds catching the wind
+Thank makakarecognize that I look like john llyod
+Oh against you?! Haha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1585,16 +1606,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF872D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1602,26 +1661,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1629,6 +1719,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF872D"/>
+      <color rgb="FFFF6E01"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1924,914 +2020,1894 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="H99" sqref="B36:H99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="92.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="149.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="149.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="405" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="D1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="405" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1.02084967776092E+16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1558335764186290</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1558335764186290</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1.02072974995942E+16</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1.02072974995942E+16</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1603666146318970</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1603666146318970</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>1.02075180047428E+16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>1503013389711870</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>1649045681775680</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>1664619910218330</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="375" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:8" ht="375" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>1710934792254580</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>1.02075509876876E+16</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>1776931975657530</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>1503436566374510</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>1302754253095590</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>1542863322405180</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>1.02091179329768E+16</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="8">
         <v>1345293845556270</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="8">
         <v>1827383970608790</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="8">
         <v>1484998054856710</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="8">
         <v>1.0203393929885E+16</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="8">
         <v>1674814679200770</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="8">
         <v>1.02090897917919E+16</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="8">
         <v>1476126192451280</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="8">
         <v>1285238954857510</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="8">
         <v>1.02069789121497E+16</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="8">
         <v>1499947146722760</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="8">
         <v>1471104562949080</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="8">
         <v>1.02069225664212E+16</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="375" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="8">
         <v>1695970123754140</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="390" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="8">
         <v>1581273871884460</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="8">
         <v>108152746435673</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="8">
         <v>1.02073219384417E+16</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>1661673027178000</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="34" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>1412803912120300</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>1088635351269570</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+      <c r="D36" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
+      <c r="D37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+      <c r="D38" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+      <c r="D39" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
+      <c r="D40" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
+      <c r="D41" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
+      <c r="D42" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
+      <c r="D43" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
+      <c r="D44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
+      <c r="D45" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
+      <c r="D46" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
+      <c r="D47" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
+      <c r="D48" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
+      <c r="D49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
+      <c r="D50" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
+      <c r="D51" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="240" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
+      <c r="D52" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
+      <c r="D53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
+      <c r="D54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" ht="270" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
+      <c r="D55" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="270" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
+      <c r="D56" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
+      <c r="D57" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
+      <c r="D58" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="240" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="9" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
+      <c r="D59" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
+      <c r="D60" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="B61" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
+      <c r="D61" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="3" t="s">
+      <c r="D62" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" ht="330" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
+      <c r="D63" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="330" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
+      <c r="D64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B66" s="3" t="s">
+      <c r="D65" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
+      <c r="D66" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" ht="300" x14ac:dyDescent="0.25">
-      <c r="B68" s="3" t="s">
+      <c r="D67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="300" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="B69" s="3" t="s">
+      <c r="D68" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B70" s="3" t="s">
+      <c r="D69" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B73" s="8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B74" s="8" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
+      <c r="C75" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B76" s="8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
+      <c r="C76" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B77" s="8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="77" spans="2:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="11" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B78" s="4" t="s">
+      <c r="C78" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="79" spans="2:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B80" s="8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="80" spans="2:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="B80" s="3" t="s">
+      <c r="C80" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="8" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B81" s="3" t="s">
+      <c r="C81" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B82" s="8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="B82" s="3" t="s">
+      <c r="C82" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="B83" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="83" spans="2:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="B83" s="3" t="s">
+      <c r="C83" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B84" s="8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="B84" s="3" t="s">
+      <c r="C84" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="B85" s="8" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B86" s="8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="86" spans="2:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="B86" s="3" t="s">
+      <c r="C86" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B87" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="B87" s="3" t="s">
+      <c r="C87" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="8" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="88" spans="2:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B88" s="3" t="s">
+      <c r="C88" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="B89" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="89" spans="2:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="B89" s="3" t="s">
+      <c r="C89" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B90" s="3" t="s">
+      <c r="C90" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B91" s="8" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="91" spans="2:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="8" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="92" spans="2:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B92" s="3" t="s">
+      <c r="C92" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="8" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="93" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B94" s="8" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="94" spans="2:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="B94" s="3" t="s">
+      <c r="C94" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="8" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="3" t="s">
+      <c r="C95" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="B96" s="8" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="96" spans="2:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B97" s="8" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="97" spans="2:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="B97" s="3" t="s">
+      <c r="C97" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="270" x14ac:dyDescent="0.25">
+      <c r="B98" s="8" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" ht="270" x14ac:dyDescent="0.25">
-      <c r="B98" s="3" t="s">
+      <c r="C98" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="B99" s="8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="99" spans="2:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="B99" s="3" t="s">
+      <c r="C99" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>194</v>
+      <c r="D99" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
